--- a/DataSource/excel/route.xlsx
+++ b/DataSource/excel/route.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="0" windowWidth="12940" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="route.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="226">
   <si>
     <t>routeId</t>
   </si>
@@ -393,12 +393,6 @@
     <t>24_314;2-3;560_165</t>
   </si>
   <si>
-    <t>126_163;126_121;3-4;573_327</t>
-  </si>
-  <si>
-    <t>136_173;126_121;3-4;573_327</t>
-  </si>
-  <si>
     <t>0_259;4-5;610_88</t>
   </si>
   <si>
@@ -418,13 +412,298 @@
   </si>
   <si>
     <t>103_223;105_278;6-7;0_9</t>
+  </si>
+  <si>
+    <t>203_298</t>
+  </si>
+  <si>
+    <t>349_340</t>
+  </si>
+  <si>
+    <t>349_340;381_311;386_226</t>
+  </si>
+  <si>
+    <t>175_158;154_150;113_174</t>
+  </si>
+  <si>
+    <t>174_158</t>
+  </si>
+  <si>
+    <t>208_188;153_148</t>
+  </si>
+  <si>
+    <t>208_188;173_160</t>
+  </si>
+  <si>
+    <t>313_260;386_226</t>
+  </si>
+  <si>
+    <t>357_177;331_95</t>
+  </si>
+  <si>
+    <t>461_161;463_115</t>
+  </si>
+  <si>
+    <t>387_45;350_54;</t>
+  </si>
+  <si>
+    <t>280_89</t>
+  </si>
+  <si>
+    <t>286_57;286_50</t>
+  </si>
+  <si>
+    <t>286_50</t>
+  </si>
+  <si>
+    <t>286_50;286_57;264_67</t>
+  </si>
+  <si>
+    <t>172_131;157_137</t>
+  </si>
+  <si>
+    <t>177_136;111_171</t>
+  </si>
+  <si>
+    <t>86_189;41_231</t>
+  </si>
+  <si>
+    <t>536_188</t>
+  </si>
+  <si>
+    <t>393_102;420_104</t>
+  </si>
+  <si>
+    <t>464_235</t>
+  </si>
+  <si>
+    <t>418_201</t>
+  </si>
+  <si>
+    <t>401_151;380_124</t>
+  </si>
+  <si>
+    <t>355_125</t>
+  </si>
+  <si>
+    <t>401_151;380_124;355_125</t>
+  </si>
+  <si>
+    <t>343_159</t>
+  </si>
+  <si>
+    <t>327_205</t>
+  </si>
+  <si>
+    <t>212_276</t>
+  </si>
+  <si>
+    <t>297_244</t>
+  </si>
+  <si>
+    <t>95_175</t>
+  </si>
+  <si>
+    <t>162_297;140_299</t>
+  </si>
+  <si>
+    <t>0_230;2-3;555_104;480_104;393_100</t>
+  </si>
+  <si>
+    <t>0_254;2-3;555_104;480_164</t>
+  </si>
+  <si>
+    <t>211_237;210_270</t>
+  </si>
+  <si>
+    <t>95_175;211_237;210_270</t>
+  </si>
+  <si>
+    <t>180_294</t>
+  </si>
+  <si>
+    <t>136_173;126_121;3-4;573_327;540_290</t>
+  </si>
+  <si>
+    <t>126_163;126_121;3-4;573_327;540_290</t>
+  </si>
+  <si>
+    <t>500_231</t>
+  </si>
+  <si>
+    <t>447_81;401_36;348_30</t>
+  </si>
+  <si>
+    <t>330_38;281_155</t>
+  </si>
+  <si>
+    <t>202_303;147_304;114_326</t>
+  </si>
+  <si>
+    <t>92_350</t>
+  </si>
+  <si>
+    <t>461_135;581_62</t>
+  </si>
+  <si>
+    <t>397_178</t>
+  </si>
+  <si>
+    <t>327_186;305_187</t>
+  </si>
+  <si>
+    <t>290_217;324_218</t>
+  </si>
+  <si>
+    <t>345_228</t>
+  </si>
+  <si>
+    <t>280_212</t>
+  </si>
+  <si>
+    <t>280_212;222_243;222_263</t>
+  </si>
+  <si>
+    <t>280_212;234_248</t>
+  </si>
+  <si>
+    <t>221_251;204_254</t>
+  </si>
+  <si>
+    <t>222_264</t>
+  </si>
+  <si>
+    <t>197_264</t>
+  </si>
+  <si>
+    <t>397_178;329_180</t>
+  </si>
+  <si>
+    <t>158_199;215_209;215_230</t>
+  </si>
+  <si>
+    <t>215_209;215_230</t>
+  </si>
+  <si>
+    <t>215_230;247_253</t>
+  </si>
+  <si>
+    <t>215_209</t>
+  </si>
+  <si>
+    <t>215_230;250_256</t>
+  </si>
+  <si>
+    <t>275_265</t>
+  </si>
+  <si>
+    <t>295_223;315_217</t>
+  </si>
+  <si>
+    <t>317_260;320_217</t>
+  </si>
+  <si>
+    <t>318_259</t>
+  </si>
+  <si>
+    <t>371_225;371_209</t>
+  </si>
+  <si>
+    <t>363_202;332_214</t>
+  </si>
+  <si>
+    <t>371_209</t>
+  </si>
+  <si>
+    <t>371_209;404_236</t>
+  </si>
+  <si>
+    <t>429_203;453_201</t>
+  </si>
+  <si>
+    <t>331_224</t>
+  </si>
+  <si>
+    <t>460_176</t>
+  </si>
+  <si>
+    <t>453_201</t>
+  </si>
+  <si>
+    <t>403_235</t>
+  </si>
+  <si>
+    <t>479_201</t>
+  </si>
+  <si>
+    <t>469_244</t>
+  </si>
+  <si>
+    <t>564_201</t>
+  </si>
+  <si>
+    <t>371_271</t>
+  </si>
+  <si>
+    <t>44_75;28_111;29_139</t>
+  </si>
+  <si>
+    <t>44_75;44_105;145_120;170_140</t>
+  </si>
+  <si>
+    <t>215_192;250_190;252_175</t>
+  </si>
+  <si>
+    <t>252_175;250_190;290_190</t>
+  </si>
+  <si>
+    <t>215_192;290_190</t>
+  </si>
+  <si>
+    <t>215_192;270_231</t>
+  </si>
+  <si>
+    <t>290_190;270_231</t>
+  </si>
+  <si>
+    <t>338_227;326_207</t>
+  </si>
+  <si>
+    <t>430_202</t>
+  </si>
+  <si>
+    <t>392_206;430_202</t>
+  </si>
+  <si>
+    <t>252_175;250_190;270_231</t>
+  </si>
+  <si>
+    <t>367_228</t>
+  </si>
+  <si>
+    <t>461_208;468_210;469_244</t>
+  </si>
+  <si>
+    <t>430_195</t>
+  </si>
+  <si>
+    <t>534_191</t>
+  </si>
+  <si>
+    <t>252_215;315_217</t>
+  </si>
+  <si>
+    <t>430_202;534_262;553_260</t>
+  </si>
+  <si>
+    <t>534_262;553_260</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +748,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -487,7 +772,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,14 +858,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +1009,56 @@
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -665,6 +1101,56 @@
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1542,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1562,7 +2048,7 @@
         <v>19</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1582,7 +2068,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1622,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1642,7 +2128,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1662,7 +2148,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1682,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1702,17 +2188,17 @@
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D36">
@@ -1742,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1762,7 +2248,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1782,7 +2268,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1802,7 +2288,7 @@
         <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1822,7 +2308,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1850,19 +2336,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1873,16 +2359,16 @@
         <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>17</v>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1890,19 +2376,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1913,16 +2399,16 @@
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1933,13 +2419,13 @@
         <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D47">
         <v>20</v>
       </c>
       <c r="E47">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>19</v>
@@ -1950,19 +2436,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1970,19 +2456,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1993,16 +2479,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D50">
         <v>23</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2010,19 +2496,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2030,19 +2516,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E52">
         <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2050,19 +2536,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2073,16 +2559,16 @@
         <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D54">
         <v>24</v>
       </c>
       <c r="E54">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2102,7 +2588,7 @@
         <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2113,16 +2599,16 @@
         <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>25</v>
       </c>
       <c r="E56">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2130,19 +2616,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2150,19 +2636,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58">
         <v>26</v>
       </c>
       <c r="E58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2170,19 +2656,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2190,19 +2676,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>29</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2210,19 +2696,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2233,13 +2719,13 @@
         <v>48</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D62">
         <v>29</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
@@ -2250,19 +2736,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2273,16 +2759,16 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>30</v>
       </c>
       <c r="E64">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2290,19 +2776,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D65">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65">
         <v>34</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2310,19 +2796,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D66">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E66">
         <v>34</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2333,16 +2819,16 @@
         <v>50</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D67">
         <v>32</v>
       </c>
       <c r="E67">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2350,19 +2836,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E68">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2370,19 +2856,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D69">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E69">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2390,19 +2876,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E70">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2410,19 +2896,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2430,19 +2916,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D72">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E72">
         <v>37</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2450,19 +2936,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2473,13 +2959,13 @@
         <v>56</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74">
         <v>37</v>
       </c>
       <c r="E74">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>19</v>
@@ -2493,13 +2979,13 @@
         <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>37</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>19</v>
@@ -2510,19 +2996,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E76">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2533,13 +3019,13 @@
         <v>57</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77">
         <v>38</v>
       </c>
       <c r="E77">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>19</v>
@@ -2550,16 +3036,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E78">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>19</v>
@@ -2570,13 +3056,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D79">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E79">
         <v>41</v>
@@ -2590,19 +3076,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D80">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>41</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2610,19 +3096,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E81">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2630,16 +3116,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D82">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E82">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>19</v>
@@ -2653,13 +3139,13 @@
         <v>62</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>43</v>
       </c>
       <c r="E83">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>19</v>
@@ -2670,13 +3156,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D84">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E84">
         <v>45</v>
@@ -2690,19 +3176,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D85">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E85">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2710,19 +3196,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D86">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2730,19 +3216,19 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D87">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2753,16 +3239,16 @@
         <v>66</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D88">
         <v>47</v>
       </c>
       <c r="E88">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2770,19 +3256,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E89">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2793,16 +3279,16 @@
         <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D90">
         <v>71</v>
       </c>
       <c r="E90">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2813,30 +3299,33 @@
         <v>68</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D91">
         <v>71</v>
       </c>
       <c r="E91">
+        <v>72</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="B92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D92">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E92">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>19</v>
@@ -2844,19 +3333,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D93">
         <v>92</v>
       </c>
       <c r="E93">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>19</v>
@@ -2864,19 +3353,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D94">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E94">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>19</v>
@@ -2884,27 +3373,27 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D95">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E95">
         <v>80</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>71</v>
@@ -2924,7 +3413,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>71</v>
@@ -2944,7 +3433,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>71</v>
@@ -2959,12 +3448,12 @@
         <v>73</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>70</v>
@@ -2984,7 +3473,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>70</v>
@@ -2999,12 +3488,12 @@
         <v>78</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>70</v>
@@ -3024,7 +3513,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>73</v>
@@ -3044,7 +3533,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>73</v>
@@ -3059,12 +3548,12 @@
         <v>74</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>73</v>
@@ -3079,12 +3568,12 @@
         <v>77</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>73</v>
@@ -3099,12 +3588,12 @@
         <v>75</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>75</v>
@@ -3119,12 +3608,12 @@
         <v>75</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>75</v>
@@ -3139,12 +3628,12 @@
         <v>77</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>77</v>
@@ -3159,12 +3648,12 @@
         <v>77</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>19</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>77</v>
@@ -3184,7 +3673,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>78</v>
@@ -3199,12 +3688,12 @@
         <v>77</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>72</v>
@@ -3219,12 +3708,12 @@
         <v>65</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>72</v>
@@ -3239,12 +3728,12 @@
         <v>66</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>66</v>
@@ -3259,12 +3748,12 @@
         <v>65</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>79</v>
@@ -3284,7 +3773,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>80</v>
@@ -3304,19 +3793,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D116">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E116">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>19</v>
@@ -3324,19 +3813,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D117">
         <v>67</v>
       </c>
       <c r="E117">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>19</v>
@@ -3344,16 +3833,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D118">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E118">
         <v>63</v>
@@ -3364,19 +3853,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D119">
         <v>64</v>
       </c>
       <c r="E119">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>19</v>
@@ -3384,119 +3873,119 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D120">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E120">
         <v>62</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D121">
         <v>63</v>
       </c>
       <c r="E121">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D122">
+        <v>63</v>
+      </c>
+      <c r="E122">
         <v>61</v>
       </c>
-      <c r="E122">
-        <v>62</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D123">
         <v>61</v>
       </c>
       <c r="E123">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D124">
         <v>61</v>
       </c>
       <c r="E124">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D125">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E125">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>19</v>
@@ -3504,119 +3993,119 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D126">
+        <v>62</v>
+      </c>
+      <c r="E126">
         <v>60</v>
       </c>
-      <c r="E126">
-        <v>59</v>
-      </c>
       <c r="F126" s="1" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D127">
         <v>60</v>
       </c>
       <c r="E127">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D128">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E128">
         <v>58</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D129">
         <v>59</v>
       </c>
       <c r="E129">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D130">
+        <v>59</v>
+      </c>
+      <c r="E130">
         <v>57</v>
       </c>
-      <c r="E130">
-        <v>58</v>
-      </c>
       <c r="F130" s="1" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D131">
         <v>57</v>
       </c>
       <c r="E131">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>19</v>
@@ -3624,79 +4113,79 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D132">
+        <v>57</v>
+      </c>
+      <c r="E132">
         <v>56</v>
       </c>
-      <c r="E132">
-        <v>58</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D133">
         <v>56</v>
       </c>
       <c r="E133">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D134">
         <v>56</v>
       </c>
       <c r="E134">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D135">
         <v>56</v>
       </c>
       <c r="E135">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>19</v>
@@ -3704,99 +4193,99 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D136">
         <v>56</v>
       </c>
       <c r="E136">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D137">
         <v>56</v>
       </c>
       <c r="E137">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D138">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E138">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D139">
         <v>55</v>
       </c>
       <c r="E139">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D140">
         <v>55</v>
       </c>
       <c r="E140">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>19</v>
@@ -3804,139 +4293,139 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D141">
         <v>55</v>
       </c>
       <c r="E141">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D142">
         <v>55</v>
       </c>
       <c r="E142">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D143">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="E143">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D144">
         <v>93</v>
       </c>
       <c r="E144">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D145">
+        <v>93</v>
+      </c>
+      <c r="E145">
         <v>49</v>
       </c>
-      <c r="E145">
-        <v>51</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D146">
         <v>49</v>
       </c>
       <c r="E146">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D147">
         <v>49</v>
       </c>
       <c r="E147">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>19</v>
@@ -3944,39 +4433,39 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D148">
+        <v>49</v>
+      </c>
+      <c r="E148">
         <v>53</v>
       </c>
-      <c r="E148">
-        <v>54</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D149">
         <v>53</v>
       </c>
       <c r="E149">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>19</v>
@@ -3984,19 +4473,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D150">
         <v>53</v>
       </c>
       <c r="E150">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>19</v>
@@ -4004,99 +4493,99 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D151">
         <v>53</v>
       </c>
       <c r="E151">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D152">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E152">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D153">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E153">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D154">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E154">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D155">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E155">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>19</v>
@@ -4104,42 +4593,42 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D156">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E156">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D157">
+        <v>67</v>
+      </c>
+      <c r="E157">
         <v>81</v>
       </c>
-      <c r="E157">
-        <v>82</v>
-      </c>
       <c r="F157" s="1" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4147,19 +4636,19 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D158">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E158">
         <v>82</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4167,19 +4656,19 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D159">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E159">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4187,19 +4676,19 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D160">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E160">
         <v>84</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4207,16 +4696,16 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D161">
+        <v>83</v>
+      </c>
+      <c r="E161">
         <v>84</v>
-      </c>
-      <c r="E161">
-        <v>85</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>19</v>
@@ -4227,19 +4716,19 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D162">
+        <v>84</v>
+      </c>
+      <c r="E162">
         <v>85</v>
       </c>
-      <c r="E162">
-        <v>86</v>
-      </c>
       <c r="F162" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4247,19 +4736,19 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D163" s="2">
-        <v>84</v>
+      <c r="D163">
+        <v>85</v>
       </c>
       <c r="E163">
         <v>86</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4270,16 +4759,16 @@
         <v>107</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D164" s="2">
         <v>84</v>
       </c>
       <c r="E164">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4287,19 +4776,19 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D165">
-        <v>83</v>
+      <c r="D165" s="2">
+        <v>84</v>
       </c>
       <c r="E165">
         <v>87</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4307,19 +4796,19 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D166">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E166">
         <v>87</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4327,19 +4816,19 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D167">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E167">
         <v>87</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4347,19 +4836,19 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D168">
+        <v>86</v>
+      </c>
+      <c r="E168">
         <v>87</v>
       </c>
-      <c r="E168">
-        <v>89</v>
-      </c>
       <c r="F168" s="1" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4370,16 +4859,16 @@
         <v>110</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D169">
         <v>87</v>
       </c>
       <c r="E169">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4387,19 +4876,19 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D170">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E170">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4407,19 +4896,19 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D171">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E171">
         <v>90</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4427,19 +4916,19 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D172">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E172">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4447,19 +4936,39 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D173">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E173">
         <v>91</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>19</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D174">
+        <v>90</v>
+      </c>
+      <c r="E174">
+        <v>91</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
